--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Ecm1-Itgb4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Ecm1-Itgb4.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.5053312634424</v>
+        <v>11.77229066666667</v>
       </c>
       <c r="H2">
-        <v>11.5053312634424</v>
+        <v>35.316872</v>
       </c>
       <c r="I2">
-        <v>0.06004722182711903</v>
+        <v>0.06057604620598449</v>
       </c>
       <c r="J2">
-        <v>0.06004722182711903</v>
+        <v>0.06057604620598449</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.7032059434259</v>
+        <v>10.92603533333333</v>
       </c>
       <c r="N2">
-        <v>10.7032059434259</v>
+        <v>32.778106</v>
       </c>
       <c r="O2">
-        <v>0.6975889761583002</v>
+        <v>0.6876368010579897</v>
       </c>
       <c r="P2">
-        <v>0.6975889761583002</v>
+        <v>0.6876368010579897</v>
       </c>
       <c r="Q2">
-        <v>123.1439299599605</v>
+        <v>128.6244637782702</v>
       </c>
       <c r="R2">
-        <v>123.1439299599605</v>
+        <v>1157.620174004432</v>
       </c>
       <c r="S2">
-        <v>0.0418882799955303</v>
+        <v>0.04165431863382415</v>
       </c>
       <c r="T2">
-        <v>0.0418882799955303</v>
+        <v>0.04165431863382416</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.5053312634424</v>
+        <v>11.77229066666667</v>
       </c>
       <c r="H3">
-        <v>11.5053312634424</v>
+        <v>35.316872</v>
       </c>
       <c r="I3">
-        <v>0.06004722182711903</v>
+        <v>0.06057604620598449</v>
       </c>
       <c r="J3">
-        <v>0.06004722182711903</v>
+        <v>0.06057604620598449</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.34325069842338</v>
+        <v>2.388815333333333</v>
       </c>
       <c r="N3">
-        <v>2.34325069842338</v>
+        <v>7.166446</v>
       </c>
       <c r="O3">
-        <v>0.1527230125474138</v>
+        <v>0.1503415725849085</v>
       </c>
       <c r="P3">
-        <v>0.1527230125474138</v>
+        <v>0.1503415725849085</v>
       </c>
       <c r="Q3">
-        <v>26.95987551865375</v>
+        <v>28.12182845299022</v>
       </c>
       <c r="R3">
-        <v>26.95987551865375</v>
+        <v>253.096456076912</v>
       </c>
       <c r="S3">
-        <v>0.009170592612540438</v>
+        <v>0.00910709804758379</v>
       </c>
       <c r="T3">
-        <v>0.009170592612540438</v>
+        <v>0.00910709804758379</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.5053312634424</v>
+        <v>11.77229066666667</v>
       </c>
       <c r="H4">
-        <v>11.5053312634424</v>
+        <v>35.316872</v>
       </c>
       <c r="I4">
-        <v>0.06004722182711903</v>
+        <v>0.06057604620598449</v>
       </c>
       <c r="J4">
-        <v>0.06004722182711903</v>
+        <v>0.06057604620598449</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.47412166722265</v>
+        <v>0.5008316666666667</v>
       </c>
       <c r="N4">
-        <v>0.47412166722265</v>
+        <v>1.502495</v>
       </c>
       <c r="O4">
-        <v>0.03090121316552471</v>
+        <v>0.0315201511461835</v>
       </c>
       <c r="P4">
-        <v>0.03090121316552471</v>
+        <v>0.0315201511461835</v>
       </c>
       <c r="Q4">
-        <v>5.454926840572189</v>
+        <v>5.895935955071112</v>
       </c>
       <c r="R4">
-        <v>5.454926840572189</v>
+        <v>53.06342359564001</v>
       </c>
       <c r="S4">
-        <v>0.001855532001677353</v>
+        <v>0.001909366132250827</v>
       </c>
       <c r="T4">
-        <v>0.001855532001677353</v>
+        <v>0.001909366132250827</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.5053312634424</v>
+        <v>11.77229066666667</v>
       </c>
       <c r="H5">
-        <v>11.5053312634424</v>
+        <v>35.316872</v>
       </c>
       <c r="I5">
-        <v>0.06004722182711903</v>
+        <v>0.06057604620598449</v>
       </c>
       <c r="J5">
-        <v>0.06004722182711903</v>
+        <v>0.06057604620598449</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.507172479442452</v>
+        <v>0.5325719999999999</v>
       </c>
       <c r="N5">
-        <v>0.507172479442452</v>
+        <v>1.597716</v>
       </c>
       <c r="O5">
-        <v>0.0330553231003871</v>
+        <v>0.03351774868380641</v>
       </c>
       <c r="P5">
-        <v>0.0330553231003871</v>
+        <v>0.03351774868380641</v>
       </c>
       <c r="Q5">
-        <v>5.835187383686842</v>
+        <v>6.269592384928</v>
       </c>
       <c r="R5">
-        <v>5.835187383686842</v>
+        <v>56.426331464352</v>
       </c>
       <c r="S5">
-        <v>0.001984880318776036</v>
+        <v>0.002030372692990833</v>
       </c>
       <c r="T5">
-        <v>0.001984880318776036</v>
+        <v>0.002030372692990833</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.5053312634424</v>
+        <v>11.77229066666667</v>
       </c>
       <c r="H6">
-        <v>11.5053312634424</v>
+        <v>35.316872</v>
       </c>
       <c r="I6">
-        <v>0.06004722182711903</v>
+        <v>0.06057604620598449</v>
       </c>
       <c r="J6">
-        <v>0.06004722182711903</v>
+        <v>0.06057604620598449</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.31539009993492</v>
+        <v>1.540999</v>
       </c>
       <c r="N6">
-        <v>1.31539009993492</v>
+        <v>4.622997</v>
       </c>
       <c r="O6">
-        <v>0.0857314750283743</v>
+        <v>0.09698372652711183</v>
       </c>
       <c r="P6">
-        <v>0.0857314750283743</v>
+        <v>0.09698372652711182</v>
       </c>
       <c r="Q6">
-        <v>15.13399884040386</v>
+        <v>18.14108814504267</v>
       </c>
       <c r="R6">
-        <v>15.13399884040386</v>
+        <v>163.269793305384</v>
       </c>
       <c r="S6">
-        <v>0.005147936898594907</v>
+        <v>0.00587489069933489</v>
       </c>
       <c r="T6">
-        <v>0.005147936898594907</v>
+        <v>0.005874890699334889</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>56.4202862409133</v>
+        <v>56.57701366666667</v>
       </c>
       <c r="H7">
-        <v>56.4202862409133</v>
+        <v>169.731041</v>
       </c>
       <c r="I7">
-        <v>0.2944618773578899</v>
+        <v>0.2911253120663078</v>
       </c>
       <c r="J7">
-        <v>0.2944618773578899</v>
+        <v>0.2911253120663078</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.7032059434259</v>
+        <v>10.92603533333333</v>
       </c>
       <c r="N7">
-        <v>10.7032059434259</v>
+        <v>32.778106</v>
       </c>
       <c r="O7">
-        <v>0.6975889761583002</v>
+        <v>0.6876368010579897</v>
       </c>
       <c r="P7">
-        <v>0.6975889761583002</v>
+        <v>0.6876368010579897</v>
       </c>
       <c r="Q7">
-        <v>603.8779430235337</v>
+        <v>618.1624503764829</v>
       </c>
       <c r="R7">
-        <v>603.8779430235337</v>
+        <v>5563.462053388346</v>
       </c>
       <c r="S7">
-        <v>0.2054133595437414</v>
+        <v>0.2001884782962849</v>
       </c>
       <c r="T7">
-        <v>0.2054133595437414</v>
+        <v>0.2001884782962849</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>56.4202862409133</v>
+        <v>56.57701366666667</v>
       </c>
       <c r="H8">
-        <v>56.4202862409133</v>
+        <v>169.731041</v>
       </c>
       <c r="I8">
-        <v>0.2944618773578899</v>
+        <v>0.2911253120663078</v>
       </c>
       <c r="J8">
-        <v>0.2944618773578899</v>
+        <v>0.2911253120663078</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.34325069842338</v>
+        <v>2.388815333333333</v>
       </c>
       <c r="N8">
-        <v>2.34325069842338</v>
+        <v>7.166446</v>
       </c>
       <c r="O8">
-        <v>0.1527230125474138</v>
+        <v>0.1503415725849085</v>
       </c>
       <c r="P8">
-        <v>0.1527230125474138</v>
+        <v>0.1503415725849085</v>
       </c>
       <c r="Q8">
-        <v>132.2068751392671</v>
+        <v>135.1520377611429</v>
       </c>
       <c r="R8">
-        <v>132.2068751392671</v>
+        <v>1216.368339850286</v>
       </c>
       <c r="S8">
-        <v>0.04497110499046404</v>
+        <v>0.04376823723532096</v>
       </c>
       <c r="T8">
-        <v>0.04497110499046404</v>
+        <v>0.04376823723532095</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>56.4202862409133</v>
+        <v>56.57701366666667</v>
       </c>
       <c r="H9">
-        <v>56.4202862409133</v>
+        <v>169.731041</v>
       </c>
       <c r="I9">
-        <v>0.2944618773578899</v>
+        <v>0.2911253120663078</v>
       </c>
       <c r="J9">
-        <v>0.2944618773578899</v>
+        <v>0.2911253120663078</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.47412166722265</v>
+        <v>0.5008316666666667</v>
       </c>
       <c r="N9">
-        <v>0.47412166722265</v>
+        <v>1.502495</v>
       </c>
       <c r="O9">
-        <v>0.03090121316552471</v>
+        <v>0.0315201511461835</v>
       </c>
       <c r="P9">
-        <v>0.03090121316552471</v>
+        <v>0.0315201511461835</v>
       </c>
       <c r="Q9">
-        <v>26.75008017772095</v>
+        <v>28.33556004969945</v>
       </c>
       <c r="R9">
-        <v>26.75008017772095</v>
+        <v>255.020040447295</v>
       </c>
       <c r="S9">
-        <v>0.009099229241356749</v>
+        <v>0.00917631383880986</v>
       </c>
       <c r="T9">
-        <v>0.009099229241356749</v>
+        <v>0.00917631383880986</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>56.4202862409133</v>
+        <v>56.57701366666667</v>
       </c>
       <c r="H10">
-        <v>56.4202862409133</v>
+        <v>169.731041</v>
       </c>
       <c r="I10">
-        <v>0.2944618773578899</v>
+        <v>0.2911253120663078</v>
       </c>
       <c r="J10">
-        <v>0.2944618773578899</v>
+        <v>0.2911253120663078</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.507172479442452</v>
+        <v>0.5325719999999999</v>
       </c>
       <c r="N10">
-        <v>0.507172479442452</v>
+        <v>1.597716</v>
       </c>
       <c r="O10">
-        <v>0.0330553231003871</v>
+        <v>0.03351774868380641</v>
       </c>
       <c r="P10">
-        <v>0.0330553231003871</v>
+        <v>0.03351774868380641</v>
       </c>
       <c r="Q10">
-        <v>28.61481646365686</v>
+        <v>30.131333322484</v>
       </c>
       <c r="R10">
-        <v>28.61481646365686</v>
+        <v>271.181999902356</v>
       </c>
       <c r="S10">
-        <v>0.009733532496811612</v>
+        <v>0.009757865045333219</v>
       </c>
       <c r="T10">
-        <v>0.009733532496811612</v>
+        <v>0.009757865045333217</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>56.4202862409133</v>
+        <v>56.57701366666667</v>
       </c>
       <c r="H11">
-        <v>56.4202862409133</v>
+        <v>169.731041</v>
       </c>
       <c r="I11">
-        <v>0.2944618773578899</v>
+        <v>0.2911253120663078</v>
       </c>
       <c r="J11">
-        <v>0.2944618773578899</v>
+        <v>0.2911253120663078</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.31539009993492</v>
+        <v>1.540999</v>
       </c>
       <c r="N11">
-        <v>1.31539009993492</v>
+        <v>4.622997</v>
       </c>
       <c r="O11">
-        <v>0.0857314750283743</v>
+        <v>0.09698372652711183</v>
       </c>
       <c r="P11">
-        <v>0.0857314750283743</v>
+        <v>0.09698372652711182</v>
       </c>
       <c r="Q11">
-        <v>74.21468595679174</v>
+        <v>87.18512148331966</v>
       </c>
       <c r="R11">
-        <v>74.21468595679174</v>
+        <v>784.666093349877</v>
       </c>
       <c r="S11">
-        <v>0.02524465108551616</v>
+        <v>0.02823441765055888</v>
       </c>
       <c r="T11">
-        <v>0.02524465108551616</v>
+        <v>0.02823441765055888</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>66.87935252608381</v>
+        <v>68.485854</v>
       </c>
       <c r="H12">
-        <v>66.87935252608381</v>
+        <v>205.457562</v>
       </c>
       <c r="I12">
-        <v>0.3490485606049628</v>
+        <v>0.3524039945859566</v>
       </c>
       <c r="J12">
-        <v>0.3490485606049628</v>
+        <v>0.3524039945859566</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.7032059434259</v>
+        <v>10.92603533333333</v>
       </c>
       <c r="N12">
-        <v>10.7032059434259</v>
+        <v>32.778106</v>
       </c>
       <c r="O12">
-        <v>0.6975889761583002</v>
+        <v>0.6876368010579897</v>
       </c>
       <c r="P12">
-        <v>0.6975889761583002</v>
+        <v>0.6876368010579897</v>
       </c>
       <c r="Q12">
-        <v>715.8234834496561</v>
+        <v>748.278860637508</v>
       </c>
       <c r="R12">
-        <v>715.8234834496561</v>
+        <v>6734.509745737572</v>
       </c>
       <c r="S12">
-        <v>0.2434924280219444</v>
+        <v>0.2423259555171443</v>
       </c>
       <c r="T12">
-        <v>0.2434924280219444</v>
+        <v>0.2423259555171443</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>66.87935252608381</v>
+        <v>68.485854</v>
       </c>
       <c r="H13">
-        <v>66.87935252608381</v>
+        <v>205.457562</v>
       </c>
       <c r="I13">
-        <v>0.3490485606049628</v>
+        <v>0.3524039945859566</v>
       </c>
       <c r="J13">
-        <v>0.3490485606049628</v>
+        <v>0.3524039945859566</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.34325069842338</v>
+        <v>2.388815333333333</v>
       </c>
       <c r="N13">
-        <v>2.34325069842338</v>
+        <v>7.166446</v>
       </c>
       <c r="O13">
-        <v>0.1527230125474138</v>
+        <v>0.1503415725849085</v>
       </c>
       <c r="P13">
-        <v>0.1527230125474138</v>
+        <v>0.1503415725849085</v>
       </c>
       <c r="Q13">
-        <v>156.7150895168493</v>
+        <v>163.600058151628</v>
       </c>
       <c r="R13">
-        <v>156.7150895168493</v>
+        <v>1472.400523364652</v>
       </c>
       <c r="S13">
-        <v>0.05330774770092845</v>
+        <v>0.05298097073125631</v>
       </c>
       <c r="T13">
-        <v>0.05330774770092845</v>
+        <v>0.05298097073125631</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>66.87935252608381</v>
+        <v>68.485854</v>
       </c>
       <c r="H14">
-        <v>66.87935252608381</v>
+        <v>205.457562</v>
       </c>
       <c r="I14">
-        <v>0.3490485606049628</v>
+        <v>0.3524039945859566</v>
       </c>
       <c r="J14">
-        <v>0.3490485606049628</v>
+        <v>0.3524039945859566</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.47412166722265</v>
+        <v>0.5008316666666667</v>
       </c>
       <c r="N14">
-        <v>0.47412166722265</v>
+        <v>1.502495</v>
       </c>
       <c r="O14">
-        <v>0.03090121316552471</v>
+        <v>0.0315201511461835</v>
       </c>
       <c r="P14">
-        <v>0.03090121316552471</v>
+        <v>0.0315201511461835</v>
       </c>
       <c r="Q14">
-        <v>31.7089501224382</v>
+        <v>34.29988440191</v>
       </c>
       <c r="R14">
-        <v>31.7089501224382</v>
+        <v>308.69895961719</v>
       </c>
       <c r="S14">
-        <v>0.01078602397637352</v>
+        <v>0.01110782717386818</v>
       </c>
       <c r="T14">
-        <v>0.01078602397637352</v>
+        <v>0.01110782717386818</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>66.87935252608381</v>
+        <v>68.485854</v>
       </c>
       <c r="H15">
-        <v>66.87935252608381</v>
+        <v>205.457562</v>
       </c>
       <c r="I15">
-        <v>0.3490485606049628</v>
+        <v>0.3524039945859566</v>
       </c>
       <c r="J15">
-        <v>0.3490485606049628</v>
+        <v>0.3524039945859566</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.507172479442452</v>
+        <v>0.5325719999999999</v>
       </c>
       <c r="N15">
-        <v>0.507172479442452</v>
+        <v>1.597716</v>
       </c>
       <c r="O15">
-        <v>0.0330553231003871</v>
+        <v>0.03351774868380641</v>
       </c>
       <c r="P15">
-        <v>0.0330553231003871</v>
+        <v>0.03351774868380641</v>
       </c>
       <c r="Q15">
-        <v>33.91936704415974</v>
+        <v>36.473648236488</v>
       </c>
       <c r="R15">
-        <v>33.91936704415974</v>
+        <v>328.262834128392</v>
       </c>
       <c r="S15">
-        <v>0.01153791294852209</v>
+        <v>0.01181178852570157</v>
       </c>
       <c r="T15">
-        <v>0.01153791294852209</v>
+        <v>0.01181178852570157</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>66.87935252608381</v>
+        <v>68.485854</v>
       </c>
       <c r="H16">
-        <v>66.87935252608381</v>
+        <v>205.457562</v>
       </c>
       <c r="I16">
-        <v>0.3490485606049628</v>
+        <v>0.3524039945859566</v>
       </c>
       <c r="J16">
-        <v>0.3490485606049628</v>
+        <v>0.3524039945859566</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.31539009993492</v>
+        <v>1.540999</v>
       </c>
       <c r="N16">
-        <v>1.31539009993492</v>
+        <v>4.622997</v>
       </c>
       <c r="O16">
-        <v>0.0857314750283743</v>
+        <v>0.09698372652711183</v>
       </c>
       <c r="P16">
-        <v>0.0857314750283743</v>
+        <v>0.09698372652711182</v>
       </c>
       <c r="Q16">
-        <v>87.97243820286812</v>
+        <v>105.536632528146</v>
       </c>
       <c r="R16">
-        <v>87.97243820286812</v>
+        <v>949.8296927533139</v>
       </c>
       <c r="S16">
-        <v>0.02992444795719437</v>
+        <v>0.03417745263798621</v>
       </c>
       <c r="T16">
-        <v>0.02992444795719437</v>
+        <v>0.03417745263798621</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>52.2075792942689</v>
+        <v>52.66510166666666</v>
       </c>
       <c r="H17">
-        <v>52.2075792942689</v>
+        <v>157.995305</v>
       </c>
       <c r="I17">
-        <v>0.2724754310117883</v>
+        <v>0.2709959957951149</v>
       </c>
       <c r="J17">
-        <v>0.2724754310117883</v>
+        <v>0.2709959957951149</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.7032059434259</v>
+        <v>10.92603533333333</v>
       </c>
       <c r="N17">
-        <v>10.7032059434259</v>
+        <v>32.778106</v>
       </c>
       <c r="O17">
-        <v>0.6975889761583002</v>
+        <v>0.6876368010579897</v>
       </c>
       <c r="P17">
-        <v>0.6975889761583002</v>
+        <v>0.6876368010579897</v>
       </c>
       <c r="Q17">
-        <v>558.7884729942979</v>
+        <v>575.4207616435922</v>
       </c>
       <c r="R17">
-        <v>558.7884729942979</v>
+        <v>5178.78685479233</v>
       </c>
       <c r="S17">
-        <v>0.190075856947805</v>
+        <v>0.1863468196480772</v>
       </c>
       <c r="T17">
-        <v>0.190075856947805</v>
+        <v>0.1863468196480773</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>52.2075792942689</v>
+        <v>52.66510166666666</v>
       </c>
       <c r="H18">
-        <v>52.2075792942689</v>
+        <v>157.995305</v>
       </c>
       <c r="I18">
-        <v>0.2724754310117883</v>
+        <v>0.2709959957951149</v>
       </c>
       <c r="J18">
-        <v>0.2724754310117883</v>
+        <v>0.2709959957951149</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.34325069842338</v>
+        <v>2.388815333333333</v>
       </c>
       <c r="N18">
-        <v>2.34325069842338</v>
+        <v>7.166446</v>
       </c>
       <c r="O18">
-        <v>0.1527230125474138</v>
+        <v>0.1503415725849085</v>
       </c>
       <c r="P18">
-        <v>0.1527230125474138</v>
+        <v>0.1503415725849085</v>
       </c>
       <c r="Q18">
-        <v>122.3354466442896</v>
+        <v>125.8072023928922</v>
       </c>
       <c r="R18">
-        <v>122.3354466442896</v>
+        <v>1132.26482153603</v>
       </c>
       <c r="S18">
-        <v>0.04161326866927532</v>
+        <v>0.04074196417205083</v>
       </c>
       <c r="T18">
-        <v>0.04161326866927532</v>
+        <v>0.04074196417205083</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>52.2075792942689</v>
+        <v>52.66510166666666</v>
       </c>
       <c r="H19">
-        <v>52.2075792942689</v>
+        <v>157.995305</v>
       </c>
       <c r="I19">
-        <v>0.2724754310117883</v>
+        <v>0.2709959957951149</v>
       </c>
       <c r="J19">
-        <v>0.2724754310117883</v>
+        <v>0.2709959957951149</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.47412166722265</v>
+        <v>0.5008316666666667</v>
       </c>
       <c r="N19">
-        <v>0.47412166722265</v>
+        <v>1.502495</v>
       </c>
       <c r="O19">
-        <v>0.03090121316552471</v>
+        <v>0.0315201511461835</v>
       </c>
       <c r="P19">
-        <v>0.03090121316552471</v>
+        <v>0.0315201511461835</v>
       </c>
       <c r="Q19">
-        <v>24.75274453665747</v>
+        <v>26.37635064288611</v>
       </c>
       <c r="R19">
-        <v>24.75274453665747</v>
+        <v>237.387155785975</v>
       </c>
       <c r="S19">
-        <v>0.008419821376063492</v>
+        <v>0.008541834747472528</v>
       </c>
       <c r="T19">
-        <v>0.008419821376063492</v>
+        <v>0.00854183474747253</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>52.2075792942689</v>
+        <v>52.66510166666666</v>
       </c>
       <c r="H20">
-        <v>52.2075792942689</v>
+        <v>157.995305</v>
       </c>
       <c r="I20">
-        <v>0.2724754310117883</v>
+        <v>0.2709959957951149</v>
       </c>
       <c r="J20">
-        <v>0.2724754310117883</v>
+        <v>0.2709959957951149</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.507172479442452</v>
+        <v>0.5325719999999999</v>
       </c>
       <c r="N20">
-        <v>0.507172479442452</v>
+        <v>1.597716</v>
       </c>
       <c r="O20">
-        <v>0.0330553231003871</v>
+        <v>0.03351774868380641</v>
       </c>
       <c r="P20">
-        <v>0.0330553231003871</v>
+        <v>0.03351774868380641</v>
       </c>
       <c r="Q20">
-        <v>26.47824743636278</v>
+        <v>28.04795852482</v>
       </c>
       <c r="R20">
-        <v>26.47824743636278</v>
+        <v>252.43162672338</v>
       </c>
       <c r="S20">
-        <v>0.009006763409011898</v>
+        <v>0.00908317568137852</v>
       </c>
       <c r="T20">
-        <v>0.009006763409011898</v>
+        <v>0.00908317568137852</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>52.2075792942689</v>
+        <v>52.66510166666666</v>
       </c>
       <c r="H21">
-        <v>52.2075792942689</v>
+        <v>157.995305</v>
       </c>
       <c r="I21">
-        <v>0.2724754310117883</v>
+        <v>0.2709959957951149</v>
       </c>
       <c r="J21">
-        <v>0.2724754310117883</v>
+        <v>0.2709959957951149</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.31539009993492</v>
+        <v>1.540999</v>
       </c>
       <c r="N21">
-        <v>1.31539009993492</v>
+        <v>4.622997</v>
       </c>
       <c r="O21">
-        <v>0.0857314750283743</v>
+        <v>0.09698372652711183</v>
       </c>
       <c r="P21">
-        <v>0.0857314750283743</v>
+        <v>0.09698372652711182</v>
       </c>
       <c r="Q21">
-        <v>68.67333294524863</v>
+        <v>81.15686900323166</v>
       </c>
       <c r="R21">
-        <v>68.67333294524863</v>
+        <v>730.411821029085</v>
       </c>
       <c r="S21">
-        <v>0.02335972060963266</v>
+        <v>0.02628220154613577</v>
       </c>
       <c r="T21">
-        <v>0.02335972060963266</v>
+        <v>0.02628220154613577</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.59217298146605</v>
+        <v>4.83878</v>
       </c>
       <c r="H22">
-        <v>4.59217298146605</v>
+        <v>14.51634</v>
       </c>
       <c r="I22">
-        <v>0.02396690919823988</v>
+        <v>0.02489865134663627</v>
       </c>
       <c r="J22">
-        <v>0.02396690919823988</v>
+        <v>0.02489865134663627</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>10.7032059434259</v>
+        <v>10.92603533333333</v>
       </c>
       <c r="N22">
-        <v>10.7032059434259</v>
+        <v>32.778106</v>
       </c>
       <c r="O22">
-        <v>0.6975889761583002</v>
+        <v>0.6876368010579897</v>
       </c>
       <c r="P22">
-        <v>0.6975889761583002</v>
+        <v>0.6876368010579897</v>
       </c>
       <c r="Q22">
-        <v>49.15097314846727</v>
+        <v>52.86868125022666</v>
       </c>
       <c r="R22">
-        <v>49.15097314846727</v>
+        <v>475.81813125204</v>
       </c>
       <c r="S22">
-        <v>0.0167190516492791</v>
+        <v>0.01712122896265917</v>
       </c>
       <c r="T22">
-        <v>0.0167190516492791</v>
+        <v>0.01712122896265917</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.59217298146605</v>
+        <v>4.83878</v>
       </c>
       <c r="H23">
-        <v>4.59217298146605</v>
+        <v>14.51634</v>
       </c>
       <c r="I23">
-        <v>0.02396690919823988</v>
+        <v>0.02489865134663627</v>
       </c>
       <c r="J23">
-        <v>0.02396690919823988</v>
+        <v>0.02489865134663627</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.34325069842338</v>
+        <v>2.388815333333333</v>
       </c>
       <c r="N23">
-        <v>2.34325069842338</v>
+        <v>7.166446</v>
       </c>
       <c r="O23">
-        <v>0.1527230125474138</v>
+        <v>0.1503415725849085</v>
       </c>
       <c r="P23">
-        <v>0.1527230125474138</v>
+        <v>0.1503415725849085</v>
       </c>
       <c r="Q23">
-        <v>10.7606125461013</v>
+        <v>11.55895185862667</v>
       </c>
       <c r="R23">
-        <v>10.7606125461013</v>
+        <v>104.03056672764</v>
       </c>
       <c r="S23">
-        <v>0.003660298574205515</v>
+        <v>0.003743302398696648</v>
       </c>
       <c r="T23">
-        <v>0.003660298574205515</v>
+        <v>0.003743302398696647</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.59217298146605</v>
+        <v>4.83878</v>
       </c>
       <c r="H24">
-        <v>4.59217298146605</v>
+        <v>14.51634</v>
       </c>
       <c r="I24">
-        <v>0.02396690919823988</v>
+        <v>0.02489865134663627</v>
       </c>
       <c r="J24">
-        <v>0.02396690919823988</v>
+        <v>0.02489865134663627</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.47412166722265</v>
+        <v>0.5008316666666667</v>
       </c>
       <c r="N24">
-        <v>0.47412166722265</v>
+        <v>1.502495</v>
       </c>
       <c r="O24">
-        <v>0.03090121316552471</v>
+        <v>0.0315201511461835</v>
       </c>
       <c r="P24">
-        <v>0.03090121316552471</v>
+        <v>0.0315201511461835</v>
       </c>
       <c r="Q24">
-        <v>2.177248710147491</v>
+        <v>2.423414252033333</v>
       </c>
       <c r="R24">
-        <v>2.177248710147491</v>
+        <v>21.8107282683</v>
       </c>
       <c r="S24">
-        <v>0.0007406065700535853</v>
+        <v>0.0007848092537821005</v>
       </c>
       <c r="T24">
-        <v>0.0007406065700535853</v>
+        <v>0.0007848092537821005</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.59217298146605</v>
+        <v>4.83878</v>
       </c>
       <c r="H25">
-        <v>4.59217298146605</v>
+        <v>14.51634</v>
       </c>
       <c r="I25">
-        <v>0.02396690919823988</v>
+        <v>0.02489865134663627</v>
       </c>
       <c r="J25">
-        <v>0.02396690919823988</v>
+        <v>0.02489865134663627</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.507172479442452</v>
+        <v>0.5325719999999999</v>
       </c>
       <c r="N25">
-        <v>0.507172479442452</v>
+        <v>1.597716</v>
       </c>
       <c r="O25">
-        <v>0.0330553231003871</v>
+        <v>0.03351774868380641</v>
       </c>
       <c r="P25">
-        <v>0.0330553231003871</v>
+        <v>0.03351774868380641</v>
       </c>
       <c r="Q25">
-        <v>2.329023757038774</v>
+        <v>2.57699874216</v>
       </c>
       <c r="R25">
-        <v>2.329023757038774</v>
+        <v>23.19298867944</v>
       </c>
       <c r="S25">
-        <v>0.0007922339272654587</v>
+        <v>0.0008345467384022726</v>
       </c>
       <c r="T25">
-        <v>0.0007922339272654587</v>
+        <v>0.0008345467384022724</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.59217298146605</v>
+        <v>4.83878</v>
       </c>
       <c r="H26">
-        <v>4.59217298146605</v>
+        <v>14.51634</v>
       </c>
       <c r="I26">
-        <v>0.02396690919823988</v>
+        <v>0.02489865134663627</v>
       </c>
       <c r="J26">
-        <v>0.02396690919823988</v>
+        <v>0.02489865134663627</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.31539009993492</v>
+        <v>1.540999</v>
       </c>
       <c r="N26">
-        <v>1.31539009993492</v>
+        <v>4.622997</v>
       </c>
       <c r="O26">
-        <v>0.0857314750283743</v>
+        <v>0.09698372652711183</v>
       </c>
       <c r="P26">
-        <v>0.0857314750283743</v>
+        <v>0.09698372652711182</v>
       </c>
       <c r="Q26">
-        <v>6.040498877009068</v>
+        <v>7.45655514122</v>
       </c>
       <c r="R26">
-        <v>6.040498877009068</v>
+        <v>67.10899627098</v>
       </c>
       <c r="S26">
-        <v>0.002054718477436217</v>
+        <v>0.002414763993096077</v>
       </c>
       <c r="T26">
-        <v>0.002054718477436217</v>
+        <v>0.002414763993096076</v>
       </c>
     </row>
   </sheetData>
